--- a/data/Subset1_WithDialogActs/Number line models 3_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Number line models 3_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4469,12 +4469,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5077,12 +5077,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5191,12 +5191,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5343,12 +5343,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6103,12 +6103,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -6293,12 +6293,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
